--- a/B2B/b2b_actual_2023-08-11_.xlsx
+++ b/B2B/b2b_actual_2023-08-11_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,6 +819,296 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WURTH</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3397165
+строительные и лакокрасочные материалы строительные и лакокрасочные материалы
+... 473МЛ КЛЕЙ-СПРЕЙ 0890.100.055 WURTH 500МЛ СИСТЕМА РЕМ ТРУБОПР BELZONA SUPERWRAP ... 9088 9ММ*50М ПРОЗ ЛЕНТА КЛЕЙ WURTH 0894.909.001 1,2*12ММ ..</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>строительные и лакокрасочные материалы строительные и лакокрасочные материалы
+... 473МЛ КЛЕЙ-СПРЕЙ 0890.100.055 WURTH 500МЛ СИСТЕМА РЕМ ТРУБОПР BELZONA SUPERWRAP ... 9088 9ММ*50М ПРОЗ ЛЕНТА КЛЕЙ WURTH 0894.909.001 1,2*12ММ ...</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>... 473МЛ КЛЕЙ-СПРЕЙ 0890.100.055 WURTH 500МЛ СИСТЕМА РЕМ ТРУБОПР BELZONA SUPERWRAP ... 9088 9ММ*50М ПРОЗ ЛЕНТА КЛЕЙ WURTH 0894.909.001 1,2*12ММ ...</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.b2b-center.ru/market/stroitelnye-i-lakokrasochnye-materialy/tender-3397165/#btid=2&amp;sqh=5d58fc17a8c0a473df3b46f9c602dbbc55ffedea&amp;tsid=3397165004</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>АО "КОВДОРСКИЙ ГОК"</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>10.08.2023 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WURTH</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>339537</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.b2b-center.ru/market/zakrytaia-protsedura-bc56d5a9ec/tender-3395379/#btid=2&amp;sqh=5d58fc17a8c0a473df3b46f9c602dbbc55ffedea&amp;tsid=3395379004</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>АО "ЖИРОВОЙ КОМБИНАТ"</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Скрыто</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WURTH</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3394963
+Присадки, добавки, клеи премиальные по каталогу Присадки, добавки, клеи премиальные по каталогу
+... 32478-2013 Паста для инструмента режущего Wurth 0893050010 банка 500г Очиститель тормозной для ... 32478-2013 Паста для инструмента режущего Wurth 0893050010 банка 500г Очиститель для обезжиривания ... ,36кг Паста для инструмента режущего Wurth 0893050010 банка 500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Присадки, добавки, клеи премиальные по каталогу Присадки, добавки, клеи премиальные по каталогу
+... 32478-2013 Паста для инструмента режущего Wurth 0893050010 банка 500г Очиститель тормозной для ... 32478-2013 Паста для инструмента режущего Wurth 0893050010 банка 500г Очиститель для обезжиривания ... ,36кг Паста для инструмента режущего Wurth 0893050010 банка 500г</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>... 32478-2013 Паста для инструмента режущего Wurth 0893050010 банка 500г Очиститель тормозной для ... 32478-2013 Паста для инструмента режущего Wurth 0893050010 банка 500г Очиститель для обезжиривания ... ,36кг Паста для инструмента режущего Wurth 0893050010 банка 500г</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.b2b-center.ru/market/prisadki-dobavki-klei-premialnye-po-katalogu/tender-3394963/#btid=2&amp;sqh=5d58fc17a8c0a473df3b46f9c602dbbc55ffedea&amp;tsid=3394963004</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ООО УК "МЕТАЛЛОИНВЕСТ"</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>08.08.2023 15:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WURTH</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3395193
+Поставка электро и бензо инструмента для технического обслуживания и ремонта электротехнического оборудования
+... ТЭПК-3000K (или аналог) Дрель аккумуляторная WURTH BHD 18BL (или аналог) Шлифмашина ... Wurth GSL700-E (или аналог) Вибрационная шлифмашина ..</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Поставка электро и бензо инструмента для технического обслуживания и ремонта электротехнического оборудования
+... ТЭПК-3000K (или аналог) Дрель аккумуляторная WURTH BHD 18BL (или аналог) Шлифмашина ... Wurth GSL700-E (или аналог) Вибрационная шлифмашина ...</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>... ТЭПК-3000K (или аналог) Дрель аккумуляторная WURTH BHD 18BL (или аналог) Шлифмашина ... Wurth GSL700-E (или аналог) Вибрационная шлифмашина ...</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.rosatom.rts-tender.ru/market/postavka-elektro-i-benzo-instrumenta-dlia-tekhnicheskogo-obsluzhivaniia-i/tender-3395193/#btid=2&amp;sqh=5d58fc17a8c0a473df3b46f9c602dbbc55ffedea&amp;tsid=3395193038</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>АО "НОВАВИНД"</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>08.08.2023 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WURTH</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3394645
+Закупка АКБ и автохимия ТБТБ05332 / ТБТБ05374 (Тамбов)
+... Аккумулятор Varta Blue Dynamic D47 Автошампунь WURTH активный шампунь FSM 0893027003 20</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Закупка АКБ и автохимия ТБТБ05332 / ТБТБ05374 (Тамбов)
+... Аккумулятор Varta Blue Dynamic D47 Автошампунь WURTH активный шампунь FSM 0893027003 20л</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>... Аккумулятор Varta Blue Dynamic D47 Автошампунь WURTH активный шампунь FSM 0893027003 20л</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.b2b-center.ru/market/zakupka-akb-i-avtokhimiia-tbtb05332-tbtb05374-tambov/tender-3394645/#btid=2&amp;sqh=5d58fc17a8c0a473df3b46f9c602dbbc55ffedea&amp;tsid=3394645004</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ООО "Тамбовский бекон"</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>08.08.2023 12:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>XILINX</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>YAGEO</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Yaskawa</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3392728
+Оборудование Yaskawa- 4 позиции. Описание в приложенной документации</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Оборудование Yaskawa- 4 позиции. Описание в приложенной документации.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.b2b-center.ru/market/oborudovanie-yaskawa-4-pozitsii/tender-3392728/#btid=2&amp;sqh=811600af96a1c506b870065d0476f20db497adfe&amp;tsid=3392728004</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>АО "ТЯЖМАШ"</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>07.08.2023 08:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Yaskawa</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3392428
+Закупка КИПиА МПП ТБ (ТБТБ05338, ТБТБ05363 СтруковИ.А.)
+... Датчик LANBAO PSR-BC30DPBR-E2 Преобразователь Yaskawa A1000 CIMP-AC4A0044BAA-9180 Панель оператора ..</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Закупка КИПиА МПП ТБ (ТБТБ05338, ТБТБ05363 СтруковИ.А.)
+... Датчик LANBAO PSR-BC30DPBR-E2 Преобразователь Yaskawa A1000 CIMP-AC4A0044BAA-9180 Панель оператора ...</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>... Датчик LANBAO PSR-BC30DPBR-E2 Преобразователь Yaskawa A1000 CIMP-AC4A0044BAA-9180 Панель оператора ...</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.b2b-center.ru/market/zakupka-kipia-mpp-tb-tbtb05338-tbtb05363-strukovi-a/tender-3392428/#btid=2&amp;sqh=811600af96a1c506b870065d0476f20db497adfe&amp;tsid=3392428004</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ООО "Тамбовский бекон"</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>04.08.2023 16:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Zigbee</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
